--- a/IPL/Sunrisers Hyderabad/Vijay Shankar .xlsx
+++ b/IPL/Sunrisers Hyderabad/Vijay Shankar .xlsx
@@ -408,16 +408,16 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="C2" t="str">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D2" t="str">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -448,16 +448,16 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="C4" t="str">
+        <v>12</v>
+      </c>
+      <c r="D4" t="str">
         <v>7</v>
       </c>
-      <c r="D4" t="str">
-        <v>10</v>
-      </c>
       <c r="E4" t="str">
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -468,10 +468,10 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="C5" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5" t="str">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="C6" t="str">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E6" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
         <v>0</v>

--- a/IPL/Sunrisers Hyderabad/Vijay Shankar .xlsx
+++ b/IPL/Sunrisers Hyderabad/Vijay Shankar .xlsx
@@ -408,13 +408,13 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="C2" t="str">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D2" t="str">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E2" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="C5" t="str">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D5" t="str">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
